--- a/Dados/maio-2023/Sistema.xlsx
+++ b/Dados/maio-2023/Sistema.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\Comercio2\Dados\maio-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0533316-0FA2-4BCE-B9E6-54432BD7CC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FAA619-EB26-4E43-B71A-EB820E58FCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,13 +473,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,8 +539,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,12 +557,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,31 +604,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,7 +706,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -744,19 +720,13 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -788,26 +758,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="17" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="18" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -839,7 +806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="17" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -854,152 +821,122 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="17" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="21" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="21" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="24" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="22" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="23" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="17" fontId="23" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="22" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="22" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="15" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="25" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="25" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="27" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="28" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="26" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="17" fontId="27" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="26" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="26" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="17" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="29" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1007,6 +944,42 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5691,8 +5664,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3300"/>
       <color rgb="FFFF00FF"/>
-      <color rgb="FFFF3300"/>
     </mruColors>
   </colors>
   <extLst>
@@ -13886,3050 +13859,3051 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:Y1047052"/>
+  <dimension ref="A1:Y1047052"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomLeft" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="11" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="28" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" style="28" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="17" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="18" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="18" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="13" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="11" style="14" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="14" customWidth="1"/>
+    <col min="9" max="9" width="28" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" style="25" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="15" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="16" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="16" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="14" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" style="5" customWidth="1"/>
     <col min="16" max="16" width="21.7109375" style="5" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" style="13" customWidth="1"/>
-    <col min="18" max="18" width="18.7109375" style="23" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" style="21" customWidth="1"/>
-    <col min="20" max="21" width="13.7109375" style="18" customWidth="1"/>
-    <col min="22" max="22" width="17.5703125" style="29" customWidth="1"/>
-    <col min="23" max="23" width="13.7109375" style="18" customWidth="1"/>
-    <col min="24" max="24" width="33.28515625" style="14" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" style="20" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" style="19" customWidth="1"/>
+    <col min="20" max="21" width="13.7109375" style="16" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" style="26" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" style="16" customWidth="1"/>
+    <col min="24" max="24" width="33.28515625" style="12" customWidth="1"/>
     <col min="25" max="25" width="28.7109375" style="5" customWidth="1"/>
     <col min="26" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="19">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
     </row>
-    <row r="3" spans="2:25" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>45054</v>
+        <v>45057</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
     </row>
-    <row r="4" spans="2:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="81" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="71" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:25" s="35" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="24">
+    <row r="5" spans="1:25" s="32" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="21">
         <f>SUBTOTAL(9,Tabela1[[VALOR A PAGAR POR ITEM ]])</f>
         <v>2382</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R5" s="22">
         <f>SUBTOTAL(9,Tabela1[PAGO])</f>
         <v>2382</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="23">
         <f>Q5-R5</f>
         <v>0</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26">
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23">
         <f>SUBTOTAL(9,Tabela1[VALE])</f>
         <v>0</v>
       </c>
-      <c r="W5" s="34"/>
-      <c r="X5" s="41">
+      <c r="W5" s="31"/>
+      <c r="X5" s="38">
         <f>S5-V5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:25" s="35" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="40"/>
+    <row r="6" spans="1:25" s="32" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="37"/>
     </row>
-    <row r="7" spans="2:25" s="12" customFormat="1" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="82" t="s">
+    <row r="7" spans="1:25" s="10" customFormat="1" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="75"/>
+      <c r="B7" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="76" t="s">
+      <c r="F7" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="77" t="s">
+      <c r="G7" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="78" t="s">
+      <c r="I7" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="84" t="s">
+      <c r="J7" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="79" t="s">
+      <c r="K7" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="80" t="s">
+      <c r="L7" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="80" t="s">
+      <c r="M7" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="77" t="s">
+      <c r="N7" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="22" t="s">
+      <c r="R7" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="S7" s="20" t="s">
+      <c r="S7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="T7" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="U7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="V7" s="42" t="s">
+      <c r="V7" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="W7" s="43" t="s">
+      <c r="W7" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="X7" s="8" t="s">
+      <c r="X7" s="84" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B8" s="12">
         <v>44532</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="42">
         <v>10</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48" t="s">
+      <c r="H8" s="42"/>
+      <c r="I8" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="48" t="s">
+      <c r="J8" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="44">
         <v>8.5</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="41">
         <v>44592</v>
       </c>
-      <c r="M8" s="46">
+      <c r="M8" s="41">
         <v>44573</v>
       </c>
-      <c r="N8" s="47">
+      <c r="N8" s="42">
         <v>10</v>
       </c>
-      <c r="O8" s="50">
+      <c r="O8" s="45">
         <f t="shared" ref="O8:O12" si="0">G8-N8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="74" t="str">
+      <c r="P8" s="69" t="str">
         <f>IF(L8="","",IF(AND(L8&lt;'[1]Gerenciador de compras'!$B$3,O8&gt;=1),"PED. ATRASADO",IF(AND(L8='[1]Gerenciador de compras'!$B$3,O8=1),"DIA DA ENTREGA",IF(AND(L8&gt;'[1]Gerenciador de compras'!$B$3,O8&gt;=1),"EM PRODUÇÃO","ENTREGA COMPLETA"))))</f>
         <v>ENTREGA COMPLETA</v>
       </c>
-      <c r="Q8" s="51">
+      <c r="Q8" s="46">
         <f>Tabela1[[#This Row],[QUANT ENVIADA]]*Tabela1[[#This Row],[PREÇO UNITARIO]]</f>
         <v>85</v>
       </c>
-      <c r="R8" s="54">
+      <c r="R8" s="49">
         <v>85</v>
       </c>
-      <c r="S8" s="52">
+      <c r="S8" s="47">
         <f>Tabela1[[#This Row],[VALOR A PAGAR POR ITEM ]]-Tabela1[[#This Row],[PAGO]]</f>
         <v>0</v>
       </c>
-      <c r="T8" s="53">
+      <c r="T8" s="48">
         <v>44573</v>
       </c>
-      <c r="U8" s="55">
+      <c r="U8" s="50">
         <f>Tabela1[[#This Row],[DIA DO PAGNTO ]]</f>
         <v>44573</v>
       </c>
-      <c r="V8" s="56"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="46"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="41"/>
     </row>
-    <row r="9" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12">
         <v>44538</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="42">
         <v>10</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48" t="s">
+      <c r="H9" s="42"/>
+      <c r="I9" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="48" t="s">
+      <c r="J9" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="44">
         <v>8.5</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="41">
         <v>44592</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="41">
         <v>44573</v>
       </c>
-      <c r="N9" s="47">
+      <c r="N9" s="42">
         <v>10</v>
       </c>
-      <c r="O9" s="50">
+      <c r="O9" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P9" s="74" t="str">
+      <c r="P9" s="69" t="str">
         <f>IF(L9="","",IF(AND(L9&lt;'[1]Gerenciador de compras'!$B$3,O9&gt;=1),"PED. ATRASADO",IF(AND(L9='[1]Gerenciador de compras'!$B$3,O9=1),"DIA DA ENTREGA",IF(AND(L9&gt;'[1]Gerenciador de compras'!$B$3,O9&gt;=1),"EM PRODUÇÃO","ENTREGA COMPLETA"))))</f>
         <v>ENTREGA COMPLETA</v>
       </c>
-      <c r="Q9" s="51">
+      <c r="Q9" s="46">
         <f>Tabela1[[#This Row],[QUANT ENVIADA]]*Tabela1[[#This Row],[PREÇO UNITARIO]]</f>
         <v>85</v>
       </c>
-      <c r="R9" s="54">
+      <c r="R9" s="49">
         <v>85</v>
       </c>
-      <c r="S9" s="52">
+      <c r="S9" s="47">
         <f>Tabela1[[#This Row],[VALOR A PAGAR POR ITEM ]]-Tabela1[[#This Row],[PAGO]]</f>
         <v>0</v>
       </c>
-      <c r="T9" s="53">
+      <c r="T9" s="48">
         <v>44573</v>
       </c>
-      <c r="U9" s="55">
+      <c r="U9" s="50">
         <f>Tabela1[[#This Row],[DIA DO PAGNTO ]]</f>
         <v>44573</v>
       </c>
-      <c r="V9" s="56"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="46"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="41"/>
     </row>
-    <row r="10" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46">
+    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="41">
         <v>44512</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="42">
         <v>4900</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="42">
         <v>22</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48" t="s">
+      <c r="H10" s="42"/>
+      <c r="I10" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="57">
+      <c r="J10" s="43"/>
+      <c r="K10" s="52">
         <v>30</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="41">
         <v>45291</v>
       </c>
-      <c r="M10" s="46"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="50">
+      <c r="M10" s="41"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="45">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="P10" s="58" t="str">
+      <c r="P10" s="53" t="str">
         <f>IF(L10="","",IF(AND(L10&lt;'[1]Gerenciador de compras'!$B$3,O10&gt;=1),"PED. ATRASADO",IF(AND(L10='[1]Gerenciador de compras'!$B$3,O10=1),"DIA DA ENTREGA",IF(AND(L10&gt;'[1]Gerenciador de compras'!$B$3,O10&gt;=1),"EM PRODUÇÃO","ENTREGA COMPLETA"))))</f>
         <v>EM PRODUÇÃO</v>
       </c>
-      <c r="Q10" s="59">
+      <c r="Q10" s="54">
         <f>Tabela1[[#This Row],[QUANT ENVIADA]]*Tabela1[[#This Row],[PREÇO UNITARIO]]</f>
         <v>660</v>
       </c>
-      <c r="R10" s="60"/>
-      <c r="S10" s="61">
+      <c r="R10" s="55"/>
+      <c r="S10" s="56">
         <f>Tabela1[[#This Row],[VALOR A PAGAR POR ITEM ]]-Tabela1[[#This Row],[PAGO]]</f>
         <v>660</v>
       </c>
-      <c r="T10" s="62"/>
-      <c r="U10" s="73">
+      <c r="T10" s="57"/>
+      <c r="U10" s="68">
         <f>Tabela1[[#This Row],[DIA DO PAGNTO ]]</f>
         <v>0</v>
       </c>
-      <c r="V10" s="64"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="46"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="41"/>
     </row>
-    <row r="11" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="46">
+    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="41">
         <v>44686</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="42">
         <v>15</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48" t="s">
+      <c r="H11" s="42"/>
+      <c r="I11" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="48" t="s">
+      <c r="J11" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="K11" s="57">
+      <c r="K11" s="52">
         <v>10</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11" s="41">
         <v>44926</v>
       </c>
-      <c r="M11" s="46">
+      <c r="M11" s="41">
         <v>44718</v>
       </c>
-      <c r="N11" s="47">
+      <c r="N11" s="42">
         <v>11</v>
       </c>
-      <c r="O11" s="50">
+      <c r="O11" s="45">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P11" s="58" t="str">
+      <c r="P11" s="53" t="str">
         <f>IF(L11="","",IF(AND(L11&lt;'[1]Gerenciador de compras'!$B$3,O11&gt;=1),"PED. ATRASADO",IF(AND(L11='[1]Gerenciador de compras'!$B$3,O11=1),"DIA DA ENTREGA",IF(AND(L11&gt;'[1]Gerenciador de compras'!$B$3,O11&gt;=1),"EM PRODUÇÃO","ENTREGA COMPLETA"))))</f>
         <v>PED. ATRASADO</v>
       </c>
-      <c r="Q11" s="59">
+      <c r="Q11" s="54">
         <f>Tabela1[[#This Row],[QUANT ENVIADA]]*Tabela1[[#This Row],[PREÇO UNITARIO]]</f>
         <v>150</v>
       </c>
-      <c r="R11" s="60">
+      <c r="R11" s="55">
         <v>150</v>
       </c>
-      <c r="S11" s="61">
+      <c r="S11" s="56">
         <f>Tabela1[[#This Row],[VALOR A PAGAR POR ITEM ]]-Tabela1[[#This Row],[PAGO]]</f>
         <v>0</v>
       </c>
-      <c r="T11" s="62">
+      <c r="T11" s="57">
         <v>44718</v>
       </c>
-      <c r="U11" s="63">
+      <c r="U11" s="58">
         <f>Tabela1[[#This Row],[DIA DO PAGNTO ]]</f>
         <v>44718</v>
       </c>
-      <c r="V11" s="64"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="46"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="41"/>
     </row>
-    <row r="12" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="46">
+    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="41">
         <v>44585</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="47">
+      <c r="G12" s="42">
         <v>60</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48" t="s">
+      <c r="H12" s="42"/>
+      <c r="I12" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="48"/>
-      <c r="K12" s="49">
+      <c r="J12" s="43"/>
+      <c r="K12" s="44">
         <v>8.5</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="41">
         <v>44592</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12" s="41">
         <v>44575</v>
       </c>
-      <c r="N12" s="47">
+      <c r="N12" s="42">
         <v>60</v>
       </c>
-      <c r="O12" s="50">
+      <c r="O12" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" s="74" t="str">
+      <c r="P12" s="69" t="str">
         <f>IF(L12="","",IF(AND(L12&lt;'[1]Gerenciador de compras'!$B$3,O12&gt;=1),"PED. ATRASADO",IF(AND(L12='[1]Gerenciador de compras'!$B$3,O12=1),"DIA DA ENTREGA",IF(AND(L12&gt;'[1]Gerenciador de compras'!$B$3,O12&gt;=1),"EM PRODUÇÃO","ENTREGA COMPLETA"))))</f>
         <v>ENTREGA COMPLETA</v>
       </c>
-      <c r="Q12" s="51">
+      <c r="Q12" s="46">
         <f>Tabela1[[#This Row],[QUANT ENVIADA]]*Tabela1[[#This Row],[PREÇO UNITARIO]]</f>
         <v>510</v>
       </c>
-      <c r="R12" s="54">
+      <c r="R12" s="49">
         <v>510</v>
       </c>
-      <c r="S12" s="52">
+      <c r="S12" s="47">
         <f>Tabela1[[#This Row],[VALOR A PAGAR POR ITEM ]]-Tabela1[[#This Row],[PAGO]]</f>
         <v>0</v>
       </c>
-      <c r="T12" s="53">
+      <c r="T12" s="48">
         <v>44617</v>
       </c>
-      <c r="U12" s="45">
+      <c r="U12" s="40">
         <f>Tabela1[[#This Row],[DIA DO PAGNTO ]]</f>
         <v>44617</v>
       </c>
-      <c r="V12" s="56"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="46"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="41"/>
     </row>
-    <row r="13" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="47">
+      <c r="G13" s="42">
         <v>15</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48" t="s">
+      <c r="H13" s="42"/>
+      <c r="I13" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="48" t="s">
+      <c r="J13" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="49">
+      <c r="K13" s="44">
         <v>10</v>
       </c>
-      <c r="L13" s="46">
+      <c r="L13" s="41">
         <v>44926</v>
       </c>
-      <c r="M13" s="46">
+      <c r="M13" s="41">
         <v>44606</v>
       </c>
-      <c r="N13" s="47">
+      <c r="N13" s="42">
         <v>15</v>
       </c>
-      <c r="O13" s="50">
+      <c r="O13" s="45">
         <f t="shared" ref="O13:O17" si="1">G13-N13</f>
         <v>0</v>
       </c>
-      <c r="P13" s="74" t="str">
+      <c r="P13" s="69" t="str">
         <f>IF(L13="","",IF(AND(L13&lt;'[1]Gerenciador de compras'!$B$3,O13&gt;=1),"PED. ATRASADO",IF(AND(L13='[1]Gerenciador de compras'!$B$3,O13=1),"DIA DA ENTREGA",IF(AND(L13&gt;'[1]Gerenciador de compras'!$B$3,O13&gt;=1),"EM PRODUÇÃO","ENTREGA COMPLETA"))))</f>
         <v>ENTREGA COMPLETA</v>
       </c>
-      <c r="Q13" s="51">
+      <c r="Q13" s="46">
         <f>Tabela1[[#This Row],[QUANT ENVIADA]]*Tabela1[[#This Row],[PREÇO UNITARIO]]</f>
         <v>150</v>
       </c>
-      <c r="R13" s="54">
+      <c r="R13" s="49">
         <v>150</v>
       </c>
-      <c r="S13" s="52">
+      <c r="S13" s="47">
         <f>Tabela1[[#This Row],[VALOR A PAGAR POR ITEM ]]-Tabela1[[#This Row],[PAGO]]</f>
         <v>0</v>
       </c>
-      <c r="T13" s="53">
+      <c r="T13" s="48">
         <v>44617</v>
       </c>
-      <c r="U13" s="45">
+      <c r="U13" s="40">
         <f>Tabela1[[#This Row],[DIA DO PAGNTO ]]</f>
         <v>44617</v>
       </c>
-      <c r="V13" s="56"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="46"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="41"/>
     </row>
-    <row r="14" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
+    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12">
         <v>44623</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="42">
         <v>10</v>
       </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48" t="s">
+      <c r="H14" s="42"/>
+      <c r="I14" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49">
+      <c r="J14" s="43"/>
+      <c r="K14" s="44">
         <v>10</v>
       </c>
-      <c r="L14" s="46">
+      <c r="L14" s="41">
         <v>44926</v>
       </c>
-      <c r="M14" s="46">
+      <c r="M14" s="41">
         <v>44637</v>
       </c>
-      <c r="N14" s="47">
+      <c r="N14" s="42">
         <v>8</v>
       </c>
-      <c r="O14" s="50">
+      <c r="O14" s="45">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P14" s="74" t="str">
+      <c r="P14" s="69" t="str">
         <f>IF(L14="","",IF(AND(L14&lt;'[1]Gerenciador de compras'!$B$3,O14&gt;=1),"PED. ATRASADO",IF(AND(L14='[1]Gerenciador de compras'!$B$3,O14=1),"DIA DA ENTREGA",IF(AND(L14&gt;'[1]Gerenciador de compras'!$B$3,O14&gt;=1),"EM PRODUÇÃO","ENTREGA COMPLETA"))))</f>
         <v>PED. ATRASADO</v>
       </c>
-      <c r="Q14" s="51">
+      <c r="Q14" s="46">
         <f>Tabela1[[#This Row],[QUANT ENVIADA]]*Tabela1[[#This Row],[PREÇO UNITARIO]]</f>
         <v>100</v>
       </c>
-      <c r="R14" s="54">
+      <c r="R14" s="49">
         <v>100</v>
       </c>
-      <c r="S14" s="52">
+      <c r="S14" s="47">
         <f>Tabela1[[#This Row],[VALOR A PAGAR POR ITEM ]]-Tabela1[[#This Row],[PAGO]]</f>
         <v>0</v>
       </c>
-      <c r="T14" s="53">
+      <c r="T14" s="48">
         <v>44658</v>
       </c>
-      <c r="U14" s="55">
+      <c r="U14" s="50">
         <f>Tabela1[[#This Row],[DIA DO PAGNTO ]]</f>
         <v>44658</v>
       </c>
-      <c r="V14" s="56"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="46"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="41"/>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="14">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="12">
         <v>44628</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G15" s="42">
         <v>4</v>
       </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48" t="s">
+      <c r="H15" s="42"/>
+      <c r="I15" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="49">
+      <c r="J15" s="43"/>
+      <c r="K15" s="44">
         <v>10</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="41">
         <v>44926</v>
       </c>
-      <c r="M15" s="46">
+      <c r="M15" s="41">
         <v>44637</v>
       </c>
-      <c r="N15" s="47">
+      <c r="N15" s="42">
         <v>4</v>
       </c>
-      <c r="O15" s="50">
+      <c r="O15" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P15" s="74" t="str">
+      <c r="P15" s="69" t="str">
         <f>IF(L15="","",IF(AND(L15&lt;'[1]Gerenciador de compras'!$B$3,O15&gt;=1),"PED. ATRASADO",IF(AND(L15='[1]Gerenciador de compras'!$B$3,O15=1),"DIA DA ENTREGA",IF(AND(L15&gt;'[1]Gerenciador de compras'!$B$3,O15&gt;=1),"EM PRODUÇÃO","ENTREGA COMPLETA"))))</f>
         <v>ENTREGA COMPLETA</v>
       </c>
-      <c r="Q15" s="51">
+      <c r="Q15" s="46">
         <f>Tabela1[[#This Row],[QUANT ENVIADA]]*Tabela1[[#This Row],[PREÇO UNITARIO]]</f>
         <v>40</v>
       </c>
-      <c r="R15" s="54">
+      <c r="R15" s="49">
         <v>40</v>
       </c>
-      <c r="S15" s="52">
+      <c r="S15" s="47">
         <f>Tabela1[[#This Row],[VALOR A PAGAR POR ITEM ]]-Tabela1[[#This Row],[PAGO]]</f>
         <v>0</v>
       </c>
-      <c r="T15" s="53">
+      <c r="T15" s="48">
         <v>44658</v>
       </c>
-      <c r="U15" s="55">
+      <c r="U15" s="50">
         <f>Tabela1[[#This Row],[DIA DO PAGNTO ]]</f>
         <v>44658</v>
       </c>
-      <c r="V15" s="56"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="46"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="41"/>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="14">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
         <v>44636</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="42">
         <v>60</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="48"/>
-      <c r="K16" s="49">
+      <c r="J16" s="43"/>
+      <c r="K16" s="44">
         <v>10</v>
       </c>
-      <c r="L16" s="46">
+      <c r="L16" s="41">
         <v>44926</v>
       </c>
-      <c r="M16" s="46">
+      <c r="M16" s="41">
         <v>44652</v>
       </c>
-      <c r="N16" s="47">
+      <c r="N16" s="42">
         <v>10</v>
       </c>
-      <c r="O16" s="50">
+      <c r="O16" s="45">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="P16" s="74" t="str">
+      <c r="P16" s="69" t="str">
         <f>IF(L16="","",IF(AND(L16&lt;'[1]Gerenciador de compras'!$B$3,O16&gt;=1),"PED. ATRASADO",IF(AND(L16='[1]Gerenciador de compras'!$B$3,O16=1),"DIA DA ENTREGA",IF(AND(L16&gt;'[1]Gerenciador de compras'!$B$3,O16&gt;=1),"EM PRODUÇÃO","ENTREGA COMPLETA"))))</f>
         <v>PED. ATRASADO</v>
       </c>
-      <c r="Q16" s="51">
+      <c r="Q16" s="46">
         <f>Tabela1[[#This Row],[QUANT ENVIADA]]*Tabela1[[#This Row],[PREÇO UNITARIO]]</f>
         <v>600</v>
       </c>
-      <c r="R16" s="54">
+      <c r="R16" s="49">
         <v>600</v>
       </c>
-      <c r="S16" s="52">
+      <c r="S16" s="47">
         <f>Tabela1[[#This Row],[VALOR A PAGAR POR ITEM ]]-Tabela1[[#This Row],[PAGO]]</f>
         <v>0</v>
       </c>
-      <c r="T16" s="53">
+      <c r="T16" s="48">
         <v>44658</v>
       </c>
-      <c r="U16" s="55">
+      <c r="U16" s="50">
         <f>Tabela1[[#This Row],[DIA DO PAGNTO ]]</f>
         <v>44658</v>
       </c>
-      <c r="V16" s="56"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="46"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="41"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="14">
+      <c r="B17" s="12">
         <v>44651</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="42">
         <v>55</v>
       </c>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48" t="s">
+      <c r="H17" s="42"/>
+      <c r="I17" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49">
+      <c r="J17" s="43"/>
+      <c r="K17" s="44">
         <v>10</v>
       </c>
-      <c r="L17" s="46">
+      <c r="L17" s="41">
         <v>44926</v>
       </c>
-      <c r="M17" s="46">
+      <c r="M17" s="41">
         <v>44711</v>
       </c>
-      <c r="N17" s="47">
+      <c r="N17" s="42">
         <v>15</v>
       </c>
-      <c r="O17" s="50">
+      <c r="O17" s="45">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="P17" s="74" t="str">
+      <c r="P17" s="69" t="str">
         <f>IF(L17="","",IF(AND(L17&lt;'[1]Gerenciador de compras'!$B$3,O17&gt;=1),"PED. ATRASADO",IF(AND(L17='[1]Gerenciador de compras'!$B$3,O17=1),"DIA DA ENTREGA",IF(AND(L17&gt;'[1]Gerenciador de compras'!$B$3,O17&gt;=1),"EM PRODUÇÃO","ENTREGA COMPLETA"))))</f>
         <v>PED. ATRASADO</v>
       </c>
-      <c r="Q17" s="51">
+      <c r="Q17" s="46">
         <f>Tabela1[[#This Row],[QUANT ENVIADA]]*Tabela1[[#This Row],[PREÇO UNITARIO]]</f>
         <v>550</v>
       </c>
-      <c r="R17" s="54">
+      <c r="R17" s="49">
         <v>550</v>
       </c>
-      <c r="S17" s="52">
+      <c r="S17" s="47">
         <f>Tabela1[[#This Row],[VALOR A PAGAR POR ITEM ]]-Tabela1[[#This Row],[PAGO]]</f>
         <v>0</v>
       </c>
-      <c r="T17" s="53">
+      <c r="T17" s="48">
         <v>44720</v>
       </c>
-      <c r="U17" s="55">
+      <c r="U17" s="50">
         <f>Tabela1[[#This Row],[DIA DO PAGNTO ]]</f>
         <v>44720</v>
       </c>
-      <c r="V17" s="56"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="46"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="41"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="14">
+      <c r="B18" s="12">
         <v>44655</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="42">
         <v>90</v>
       </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48" t="s">
+      <c r="H18" s="42"/>
+      <c r="I18" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="48"/>
-      <c r="K18" s="49">
+      <c r="J18" s="43"/>
+      <c r="K18" s="44">
         <v>10</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="41">
         <v>44926</v>
       </c>
-      <c r="M18" s="46">
+      <c r="M18" s="41">
         <v>44686</v>
       </c>
-      <c r="N18" s="47">
+      <c r="N18" s="42">
         <v>10</v>
       </c>
-      <c r="O18" s="50">
+      <c r="O18" s="45">
         <f t="shared" ref="O18:O22" si="2">G18-N18</f>
         <v>80</v>
       </c>
-      <c r="P18" s="74" t="str">
+      <c r="P18" s="69" t="str">
         <f>IF(L18="","",IF(AND(L18&lt;'[1]Gerenciador de compras'!$B$3,O18&gt;=1),"PED. ATRASADO",IF(AND(L18='[1]Gerenciador de compras'!$B$3,O18=1),"DIA DA ENTREGA",IF(AND(L18&gt;'[1]Gerenciador de compras'!$B$3,O18&gt;=1),"EM PRODUÇÃO","ENTREGA COMPLETA"))))</f>
         <v>PED. ATRASADO</v>
       </c>
-      <c r="Q18" s="51">
+      <c r="Q18" s="46">
         <f>Tabela1[[#This Row],[QUANT ENVIADA]]*Tabela1[[#This Row],[PREÇO UNITARIO]]</f>
         <v>900</v>
       </c>
-      <c r="R18" s="54">
+      <c r="R18" s="49">
         <v>900</v>
       </c>
-      <c r="S18" s="52">
+      <c r="S18" s="47">
         <f>Tabela1[[#This Row],[VALOR A PAGAR POR ITEM ]]-Tabela1[[#This Row],[PAGO]]</f>
         <v>0</v>
       </c>
-      <c r="T18" s="53">
+      <c r="T18" s="48">
         <v>44686</v>
       </c>
-      <c r="U18" s="55">
+      <c r="U18" s="50">
         <f>Tabela1[[#This Row],[DIA DO PAGNTO ]]</f>
         <v>44686</v>
       </c>
-      <c r="V18" s="56"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="46"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="41"/>
     </row>
     <row r="19" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="14">
+      <c r="B19" s="12">
         <v>44679</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="42">
         <v>10</v>
       </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48" t="s">
+      <c r="H19" s="42"/>
+      <c r="I19" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="J19" s="48"/>
-      <c r="K19" s="49">
+      <c r="J19" s="43"/>
+      <c r="K19" s="44">
         <v>10</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19" s="41">
         <v>44926</v>
       </c>
-      <c r="M19" s="46">
+      <c r="M19" s="41">
         <v>44698</v>
       </c>
-      <c r="N19" s="47">
+      <c r="N19" s="42">
         <v>10</v>
       </c>
-      <c r="O19" s="50">
+      <c r="O19" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P19" s="74" t="str">
+      <c r="P19" s="69" t="str">
         <f>IF(L19="","",IF(AND(L19&lt;'[1]Gerenciador de compras'!$B$3,O19&gt;=1),"PED. ATRASADO",IF(AND(L19='[1]Gerenciador de compras'!$B$3,O19=1),"DIA DA ENTREGA",IF(AND(L19&gt;'[1]Gerenciador de compras'!$B$3,O19&gt;=1),"EM PRODUÇÃO","ENTREGA COMPLETA"))))</f>
         <v>ENTREGA COMPLETA</v>
       </c>
-      <c r="Q19" s="51">
+      <c r="Q19" s="46">
         <f>Tabela1[[#This Row],[QUANT ENVIADA]]*Tabela1[[#This Row],[PREÇO UNITARIO]]</f>
         <v>100</v>
       </c>
-      <c r="R19" s="54">
+      <c r="R19" s="49">
         <v>100</v>
       </c>
-      <c r="S19" s="52">
+      <c r="S19" s="47">
         <f>Tabela1[[#This Row],[VALOR A PAGAR POR ITEM ]]-Tabela1[[#This Row],[PAGO]]</f>
         <v>0</v>
       </c>
-      <c r="T19" s="53">
+      <c r="T19" s="48">
         <v>44720</v>
       </c>
-      <c r="U19" s="55">
+      <c r="U19" s="50">
         <f>Tabela1[[#This Row],[DIA DO PAGNTO ]]</f>
         <v>44720</v>
       </c>
-      <c r="V19" s="56"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="46"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="41"/>
     </row>
     <row r="20" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="14">
+      <c r="B20" s="12">
         <v>44679</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="42">
         <v>4</v>
       </c>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48" t="s">
+      <c r="H20" s="42"/>
+      <c r="I20" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="J20" s="48"/>
-      <c r="K20" s="49">
+      <c r="J20" s="43"/>
+      <c r="K20" s="44">
         <v>10</v>
       </c>
-      <c r="L20" s="46">
+      <c r="L20" s="41">
         <v>44926</v>
       </c>
-      <c r="M20" s="46">
+      <c r="M20" s="41">
         <v>44698</v>
       </c>
-      <c r="N20" s="47">
+      <c r="N20" s="42">
         <v>4</v>
       </c>
-      <c r="O20" s="50">
+      <c r="O20" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P20" s="74" t="str">
+      <c r="P20" s="69" t="str">
         <f>IF(L20="","",IF(AND(L20&lt;'[1]Gerenciador de compras'!$B$3,O20&gt;=1),"PED. ATRASADO",IF(AND(L20='[1]Gerenciador de compras'!$B$3,O20=1),"DIA DA ENTREGA",IF(AND(L20&gt;'[1]Gerenciador de compras'!$B$3,O20&gt;=1),"EM PRODUÇÃO","ENTREGA COMPLETA"))))</f>
         <v>ENTREGA COMPLETA</v>
       </c>
-      <c r="Q20" s="51">
+      <c r="Q20" s="46">
         <f>Tabela1[[#This Row],[QUANT ENVIADA]]*Tabela1[[#This Row],[PREÇO UNITARIO]]</f>
         <v>40</v>
       </c>
-      <c r="R20" s="54">
+      <c r="R20" s="49">
         <v>40</v>
       </c>
-      <c r="S20" s="52">
+      <c r="S20" s="47">
         <f>Tabela1[[#This Row],[VALOR A PAGAR POR ITEM ]]-Tabela1[[#This Row],[PAGO]]</f>
         <v>0</v>
       </c>
-      <c r="T20" s="53">
+      <c r="T20" s="48">
         <v>44720</v>
       </c>
-      <c r="U20" s="55">
+      <c r="U20" s="50">
         <f>Tabela1[[#This Row],[DIA DO PAGNTO ]]</f>
         <v>44720</v>
       </c>
-      <c r="V20" s="56"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="46"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="41"/>
     </row>
     <row r="21" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="14">
+      <c r="B21" s="12">
         <v>44679</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="47">
+      <c r="G21" s="42">
         <v>35</v>
       </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="48" t="s">
+      <c r="H21" s="42"/>
+      <c r="I21" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="49">
+      <c r="J21" s="43"/>
+      <c r="K21" s="44">
         <v>10</v>
       </c>
-      <c r="L21" s="46">
+      <c r="L21" s="41">
         <v>44926</v>
       </c>
-      <c r="M21" s="46">
+      <c r="M21" s="41">
         <v>44706</v>
       </c>
-      <c r="N21" s="47">
+      <c r="N21" s="42">
         <v>35</v>
       </c>
-      <c r="O21" s="50">
+      <c r="O21" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P21" s="74" t="str">
+      <c r="P21" s="69" t="str">
         <f>IF(L21="","",IF(AND(L21&lt;'[1]Gerenciador de compras'!$B$3,O21&gt;=1),"PED. ATRASADO",IF(AND(L21='[1]Gerenciador de compras'!$B$3,O21=1),"DIA DA ENTREGA",IF(AND(L21&gt;'[1]Gerenciador de compras'!$B$3,O21&gt;=1),"EM PRODUÇÃO","ENTREGA COMPLETA"))))</f>
         <v>ENTREGA COMPLETA</v>
       </c>
-      <c r="Q21" s="51">
+      <c r="Q21" s="46">
         <f>Tabela1[[#This Row],[QUANT ENVIADA]]*Tabela1[[#This Row],[PREÇO UNITARIO]]</f>
         <v>350</v>
       </c>
-      <c r="R21" s="54">
+      <c r="R21" s="49">
         <v>350</v>
       </c>
-      <c r="S21" s="52">
+      <c r="S21" s="47">
         <f>Tabela1[[#This Row],[VALOR A PAGAR POR ITEM ]]-Tabela1[[#This Row],[PAGO]]</f>
         <v>0</v>
       </c>
-      <c r="T21" s="53">
+      <c r="T21" s="48">
         <v>44720</v>
       </c>
-      <c r="U21" s="55">
+      <c r="U21" s="50">
         <f>Tabela1[[#This Row],[DIA DO PAGNTO ]]</f>
         <v>44720</v>
       </c>
-      <c r="V21" s="56"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="46"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="41"/>
     </row>
     <row r="22" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="14">
+      <c r="B22" s="12">
         <v>44862</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="42">
         <v>5791</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="42">
         <v>227</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="48" t="s">
+      <c r="H22" s="42"/>
+      <c r="I22" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="48"/>
-      <c r="K22" s="49">
+      <c r="J22" s="43"/>
+      <c r="K22" s="44">
         <v>1.3</v>
       </c>
-      <c r="L22" s="46">
+      <c r="L22" s="41">
         <v>44926</v>
       </c>
-      <c r="M22" s="46">
+      <c r="M22" s="41">
         <v>44965</v>
       </c>
-      <c r="N22" s="47">
+      <c r="N22" s="42">
         <v>20</v>
       </c>
-      <c r="O22" s="50">
+      <c r="O22" s="45">
         <f t="shared" si="2"/>
         <v>207</v>
       </c>
-      <c r="P22" s="74" t="str">
+      <c r="P22" s="69" t="str">
         <f>IF(L22="","",IF(AND(L22&lt;'[1]Gerenciador de compras'!$B$3,O22&gt;=1),"PED. ATRASADO",IF(AND(L22='[1]Gerenciador de compras'!$B$3,O22=1),"DIA DA ENTREGA",IF(AND(L22&gt;'[1]Gerenciador de compras'!$B$3,O22&gt;=1),"EM PRODUÇÃO","ENTREGA COMPLETA"))))</f>
         <v>PED. ATRASADO</v>
       </c>
-      <c r="Q22" s="51">
+      <c r="Q22" s="46">
         <f>Tabela1[[#This Row],[QUANT ENVIADA]]*Tabela1[[#This Row],[PREÇO UNITARIO]]</f>
         <v>295.10000000000002</v>
       </c>
-      <c r="R22" s="54">
+      <c r="R22" s="49">
         <v>295.10000000000002</v>
       </c>
-      <c r="S22" s="52">
+      <c r="S22" s="47">
         <f>Tabela1[[#This Row],[VALOR A PAGAR POR ITEM ]]-Tabela1[[#This Row],[PAGO]]</f>
         <v>0</v>
       </c>
-      <c r="T22" s="53">
+      <c r="T22" s="48">
         <v>44965</v>
       </c>
-      <c r="U22" s="55">
+      <c r="U22" s="50">
         <f>Tabela1[[#This Row],[DIA DO PAGNTO ]]</f>
         <v>44965</v>
       </c>
-      <c r="V22" s="56"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="46"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="41"/>
     </row>
     <row r="23" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="14">
+      <c r="B23" s="12">
         <v>44707</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="42">
         <v>9</v>
       </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="48" t="s">
+      <c r="H23" s="42"/>
+      <c r="I23" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="48"/>
-      <c r="K23" s="49">
+      <c r="J23" s="43"/>
+      <c r="K23" s="44">
         <v>10</v>
       </c>
-      <c r="L23" s="46">
+      <c r="L23" s="41">
         <v>44926</v>
       </c>
-      <c r="M23" s="46">
+      <c r="M23" s="41">
         <v>44782</v>
       </c>
-      <c r="N23" s="47">
+      <c r="N23" s="42">
         <v>9</v>
       </c>
-      <c r="O23" s="50">
+      <c r="O23" s="45">
         <f t="shared" ref="O23:O25" si="3">G23-N23</f>
         <v>0</v>
       </c>
-      <c r="P23" s="74" t="str">
+      <c r="P23" s="69" t="str">
         <f>IF(L23="","",IF(AND(L23&lt;'[1]Gerenciador de compras'!$B$3,O23&gt;=1),"PED. ATRASADO",IF(AND(L23='[1]Gerenciador de compras'!$B$3,O23=1),"DIA DA ENTREGA",IF(AND(L23&gt;'[1]Gerenciador de compras'!$B$3,O23&gt;=1),"EM PRODUÇÃO","ENTREGA COMPLETA"))))</f>
         <v>ENTREGA COMPLETA</v>
       </c>
-      <c r="Q23" s="51">
+      <c r="Q23" s="46">
         <f>Tabela1[[#This Row],[QUANT ENVIADA]]*Tabela1[[#This Row],[PREÇO UNITARIO]]</f>
         <v>90</v>
       </c>
-      <c r="R23" s="54">
+      <c r="R23" s="49">
         <v>90</v>
       </c>
-      <c r="S23" s="52">
+      <c r="S23" s="47">
         <f>Tabela1[[#This Row],[VALOR A PAGAR POR ITEM ]]-Tabela1[[#This Row],[PAGO]]</f>
         <v>0</v>
       </c>
-      <c r="T23" s="53">
+      <c r="T23" s="48">
         <v>44784</v>
       </c>
-      <c r="U23" s="55">
+      <c r="U23" s="50">
         <f>Tabela1[[#This Row],[DIA DO PAGNTO ]]</f>
         <v>44784</v>
       </c>
-      <c r="V23" s="56"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="46"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="41"/>
     </row>
     <row r="24" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="14">
+      <c r="B24" s="12">
         <v>44707</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="47">
+      <c r="G24" s="42">
         <v>28</v>
       </c>
-      <c r="H24" s="47"/>
-      <c r="I24" s="48" t="s">
+      <c r="H24" s="42"/>
+      <c r="I24" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="J24" s="48"/>
-      <c r="K24" s="49">
+      <c r="J24" s="43"/>
+      <c r="K24" s="44">
         <v>10</v>
       </c>
-      <c r="L24" s="46">
+      <c r="L24" s="41">
         <v>44926</v>
       </c>
-      <c r="M24" s="46">
+      <c r="M24" s="41">
         <v>44715</v>
       </c>
-      <c r="N24" s="47">
+      <c r="N24" s="42">
         <v>28</v>
       </c>
-      <c r="O24" s="50">
+      <c r="O24" s="45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P24" s="74" t="str">
+      <c r="P24" s="69" t="str">
         <f>IF(L24="","",IF(AND(L24&lt;'[1]Gerenciador de compras'!$B$3,O24&gt;=1),"PED. ATRASADO",IF(AND(L24='[1]Gerenciador de compras'!$B$3,O24=1),"DIA DA ENTREGA",IF(AND(L24&gt;'[1]Gerenciador de compras'!$B$3,O24&gt;=1),"EM PRODUÇÃO","ENTREGA COMPLETA"))))</f>
         <v>ENTREGA COMPLETA</v>
       </c>
-      <c r="Q24" s="51">
+      <c r="Q24" s="46">
         <f>Tabela1[[#This Row],[QUANT ENVIADA]]*Tabela1[[#This Row],[PREÇO UNITARIO]]</f>
         <v>280</v>
       </c>
-      <c r="R24" s="54">
+      <c r="R24" s="49">
         <v>280</v>
       </c>
-      <c r="S24" s="52">
+      <c r="S24" s="47">
         <f>Tabela1[[#This Row],[VALOR A PAGAR POR ITEM ]]-Tabela1[[#This Row],[PAGO]]</f>
         <v>0</v>
       </c>
-      <c r="T24" s="53">
+      <c r="T24" s="48">
         <v>44720</v>
       </c>
-      <c r="U24" s="55">
+      <c r="U24" s="50">
         <f>Tabela1[[#This Row],[DIA DO PAGNTO ]]</f>
         <v>44720</v>
       </c>
-      <c r="V24" s="56"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="46"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="41"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="14">
+      <c r="B25" s="12">
         <v>44727</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="42">
         <v>5239</v>
       </c>
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="47">
+      <c r="G25" s="42">
         <v>6</v>
       </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="48" t="s">
+      <c r="H25" s="42"/>
+      <c r="I25" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="48"/>
-      <c r="K25" s="49">
+      <c r="J25" s="43"/>
+      <c r="K25" s="44">
         <v>34.5</v>
       </c>
-      <c r="L25" s="46">
+      <c r="L25" s="41">
         <v>45291</v>
       </c>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="50">
+      <c r="M25" s="41"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="45">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="P25" s="58" t="str">
+      <c r="P25" s="53" t="str">
         <f>IF(L25="","",IF(AND(L25&lt;'[1]Gerenciador de compras'!$B$3,O25&gt;=1),"PED. ATRASADO",IF(AND(L25='[1]Gerenciador de compras'!$B$3,O25=1),"DIA DA ENTREGA",IF(AND(L25&gt;'[1]Gerenciador de compras'!$B$3,O25&gt;=1),"EM PRODUÇÃO","ENTREGA COMPLETA"))))</f>
         <v>EM PRODUÇÃO</v>
       </c>
-      <c r="Q25" s="51">
+      <c r="Q25" s="46">
         <f>Tabela1[[#This Row],[QUANT ENVIADA]]*Tabela1[[#This Row],[PREÇO UNITARIO]]</f>
         <v>207</v>
       </c>
-      <c r="R25" s="54">
+      <c r="R25" s="49">
         <v>207</v>
       </c>
-      <c r="S25" s="52">
+      <c r="S25" s="47">
         <f>Tabela1[[#This Row],[VALOR A PAGAR POR ITEM ]]-Tabela1[[#This Row],[PAGO]]</f>
         <v>0</v>
       </c>
-      <c r="T25" s="53">
+      <c r="T25" s="48">
         <v>45002</v>
       </c>
-      <c r="U25" s="73">
+      <c r="U25" s="68">
         <v>34.5</v>
       </c>
-      <c r="V25" s="56"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="46"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="41"/>
     </row>
     <row r="26" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="46"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="41"/>
     </row>
     <row r="27" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="46"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="41"/>
     </row>
     <row r="28" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="46"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="41"/>
     </row>
     <row r="29" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="46"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="41"/>
     </row>
     <row r="30" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="46"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="41"/>
     </row>
     <row r="31" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="55"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="46"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="41"/>
     </row>
     <row r="32" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="46"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="41"/>
     </row>
     <row r="33" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="55"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="46"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="41"/>
     </row>
     <row r="34" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="46"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="69"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="41"/>
     </row>
     <row r="35" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="14"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="55"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="53"/>
-      <c r="X35" s="46"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="41"/>
     </row>
     <row r="36" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="68"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="70"/>
-      <c r="U36" s="73"/>
-      <c r="V36" s="72"/>
-      <c r="W36" s="70"/>
-      <c r="X36" s="46"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="65"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="67"/>
+      <c r="W36" s="65"/>
+      <c r="X36" s="41"/>
     </row>
     <row r="37" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="46"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="41"/>
     </row>
     <row r="38" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="46"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="41"/>
     </row>
     <row r="39" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="67"/>
-      <c r="R39" s="68"/>
-      <c r="S39" s="69"/>
-      <c r="T39" s="70"/>
-      <c r="U39" s="71"/>
-      <c r="V39" s="72"/>
-      <c r="W39" s="70"/>
-      <c r="X39" s="46"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="69"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="64"/>
+      <c r="T39" s="65"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="65"/>
+      <c r="X39" s="41"/>
     </row>
     <row r="40" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="67"/>
-      <c r="R40" s="68"/>
-      <c r="S40" s="69"/>
-      <c r="T40" s="70"/>
-      <c r="U40" s="73"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="70"/>
-      <c r="X40" s="46"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="64"/>
+      <c r="T40" s="65"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="65"/>
+      <c r="X40" s="41"/>
     </row>
     <row r="41" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="67"/>
-      <c r="R41" s="68"/>
-      <c r="S41" s="69"/>
-      <c r="T41" s="70"/>
-      <c r="U41" s="71"/>
-      <c r="V41" s="72"/>
-      <c r="W41" s="70"/>
-      <c r="X41" s="46"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="64"/>
+      <c r="T41" s="65"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="67"/>
+      <c r="W41" s="65"/>
+      <c r="X41" s="41"/>
     </row>
     <row r="42" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="14"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="67"/>
-      <c r="R42" s="68"/>
-      <c r="S42" s="69"/>
-      <c r="T42" s="70"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="72"/>
-      <c r="W42" s="70"/>
-      <c r="X42" s="46"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="64"/>
+      <c r="T42" s="65"/>
+      <c r="U42" s="66"/>
+      <c r="V42" s="67"/>
+      <c r="W42" s="65"/>
+      <c r="X42" s="41"/>
     </row>
     <row r="43" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="14"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="67"/>
-      <c r="R43" s="68"/>
-      <c r="S43" s="69"/>
-      <c r="T43" s="70"/>
-      <c r="U43" s="71"/>
-      <c r="V43" s="72"/>
-      <c r="W43" s="70"/>
-      <c r="X43" s="46"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="69"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="64"/>
+      <c r="T43" s="65"/>
+      <c r="U43" s="66"/>
+      <c r="V43" s="67"/>
+      <c r="W43" s="65"/>
+      <c r="X43" s="41"/>
     </row>
     <row r="44" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="14"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="67"/>
-      <c r="R44" s="68"/>
-      <c r="S44" s="69"/>
-      <c r="T44" s="70"/>
-      <c r="U44" s="71"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="70"/>
-      <c r="X44" s="46"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="69"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="63"/>
+      <c r="S44" s="64"/>
+      <c r="T44" s="65"/>
+      <c r="U44" s="66"/>
+      <c r="V44" s="67"/>
+      <c r="W44" s="65"/>
+      <c r="X44" s="41"/>
     </row>
     <row r="45" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="74"/>
-      <c r="Q45" s="67"/>
-      <c r="R45" s="68"/>
-      <c r="S45" s="69"/>
-      <c r="T45" s="70"/>
-      <c r="U45" s="71"/>
-      <c r="V45" s="72"/>
-      <c r="W45" s="70"/>
-      <c r="X45" s="46"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="69"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="63"/>
+      <c r="S45" s="64"/>
+      <c r="T45" s="65"/>
+      <c r="U45" s="66"/>
+      <c r="V45" s="67"/>
+      <c r="W45" s="65"/>
+      <c r="X45" s="41"/>
     </row>
     <row r="46" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="50"/>
-      <c r="P46" s="74"/>
-      <c r="Q46" s="67"/>
-      <c r="R46" s="68"/>
-      <c r="S46" s="69"/>
-      <c r="T46" s="70"/>
-      <c r="U46" s="71"/>
-      <c r="V46" s="72"/>
-      <c r="W46" s="70"/>
-      <c r="X46" s="46"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="69"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="63"/>
+      <c r="S46" s="64"/>
+      <c r="T46" s="65"/>
+      <c r="U46" s="66"/>
+      <c r="V46" s="67"/>
+      <c r="W46" s="65"/>
+      <c r="X46" s="41"/>
     </row>
     <row r="47" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="50"/>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="67"/>
-      <c r="R47" s="68"/>
-      <c r="S47" s="69"/>
-      <c r="T47" s="70"/>
-      <c r="U47" s="71"/>
-      <c r="V47" s="72"/>
-      <c r="W47" s="70"/>
-      <c r="X47" s="46"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="69"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="63"/>
+      <c r="S47" s="64"/>
+      <c r="T47" s="65"/>
+      <c r="U47" s="66"/>
+      <c r="V47" s="67"/>
+      <c r="W47" s="65"/>
+      <c r="X47" s="41"/>
     </row>
     <row r="48" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="50"/>
-      <c r="P48" s="74"/>
-      <c r="Q48" s="67"/>
-      <c r="R48" s="68"/>
-      <c r="S48" s="69"/>
-      <c r="T48" s="70"/>
-      <c r="U48" s="71"/>
-      <c r="V48" s="72"/>
-      <c r="W48" s="70"/>
-      <c r="X48" s="46"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="69"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="63"/>
+      <c r="S48" s="64"/>
+      <c r="T48" s="65"/>
+      <c r="U48" s="66"/>
+      <c r="V48" s="67"/>
+      <c r="W48" s="65"/>
+      <c r="X48" s="41"/>
     </row>
     <row r="49" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="74"/>
-      <c r="Q49" s="67"/>
-      <c r="R49" s="68"/>
-      <c r="S49" s="69"/>
-      <c r="T49" s="70"/>
-      <c r="U49" s="71"/>
-      <c r="V49" s="72"/>
-      <c r="W49" s="70"/>
-      <c r="X49" s="46"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="69"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="64"/>
+      <c r="T49" s="65"/>
+      <c r="U49" s="66"/>
+      <c r="V49" s="67"/>
+      <c r="W49" s="65"/>
+      <c r="X49" s="41"/>
     </row>
     <row r="50" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="14"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="50"/>
-      <c r="P50" s="74"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="68"/>
-      <c r="S50" s="69"/>
-      <c r="T50" s="70"/>
-      <c r="U50" s="73"/>
-      <c r="V50" s="72"/>
-      <c r="W50" s="70"/>
-      <c r="X50" s="46"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="69"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="63"/>
+      <c r="S50" s="64"/>
+      <c r="T50" s="65"/>
+      <c r="U50" s="68"/>
+      <c r="V50" s="67"/>
+      <c r="W50" s="65"/>
+      <c r="X50" s="41"/>
     </row>
     <row r="51" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="14"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="50"/>
-      <c r="P51" s="74"/>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="68"/>
-      <c r="S51" s="69"/>
-      <c r="T51" s="70"/>
-      <c r="U51" s="73"/>
-      <c r="V51" s="72"/>
-      <c r="W51" s="70"/>
-      <c r="X51" s="46"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="69"/>
+      <c r="Q51" s="62"/>
+      <c r="R51" s="63"/>
+      <c r="S51" s="64"/>
+      <c r="T51" s="65"/>
+      <c r="U51" s="68"/>
+      <c r="V51" s="67"/>
+      <c r="W51" s="65"/>
+      <c r="X51" s="41"/>
     </row>
     <row r="52" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="14"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="74"/>
-      <c r="Q52" s="67"/>
-      <c r="R52" s="68"/>
-      <c r="S52" s="69"/>
-      <c r="T52" s="70"/>
-      <c r="U52" s="73"/>
-      <c r="V52" s="72"/>
-      <c r="W52" s="70"/>
-      <c r="X52" s="46"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="69"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="63"/>
+      <c r="S52" s="64"/>
+      <c r="T52" s="65"/>
+      <c r="U52" s="68"/>
+      <c r="V52" s="67"/>
+      <c r="W52" s="65"/>
+      <c r="X52" s="41"/>
     </row>
     <row r="53" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="50"/>
-      <c r="P53" s="74"/>
-      <c r="Q53" s="67"/>
-      <c r="R53" s="68"/>
-      <c r="S53" s="69"/>
-      <c r="T53" s="70"/>
-      <c r="U53" s="73"/>
-      <c r="V53" s="72"/>
-      <c r="W53" s="70"/>
-      <c r="X53" s="46"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="69"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="63"/>
+      <c r="S53" s="64"/>
+      <c r="T53" s="65"/>
+      <c r="U53" s="68"/>
+      <c r="V53" s="67"/>
+      <c r="W53" s="65"/>
+      <c r="X53" s="41"/>
     </row>
     <row r="54" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="50"/>
-      <c r="P54" s="74"/>
-      <c r="Q54" s="67"/>
-      <c r="R54" s="68"/>
-      <c r="S54" s="69"/>
-      <c r="T54" s="70"/>
-      <c r="U54" s="73"/>
-      <c r="V54" s="72"/>
-      <c r="W54" s="70"/>
-      <c r="X54" s="46"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="69"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="63"/>
+      <c r="S54" s="64"/>
+      <c r="T54" s="65"/>
+      <c r="U54" s="68"/>
+      <c r="V54" s="67"/>
+      <c r="W54" s="65"/>
+      <c r="X54" s="41"/>
     </row>
     <row r="55" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="47"/>
-      <c r="O55" s="50"/>
-      <c r="P55" s="74"/>
-      <c r="Q55" s="67"/>
-      <c r="R55" s="68"/>
-      <c r="S55" s="69"/>
-      <c r="T55" s="70"/>
-      <c r="U55" s="73"/>
-      <c r="V55" s="72"/>
-      <c r="W55" s="70"/>
-      <c r="X55" s="46"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="69"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="63"/>
+      <c r="S55" s="64"/>
+      <c r="T55" s="65"/>
+      <c r="U55" s="68"/>
+      <c r="V55" s="67"/>
+      <c r="W55" s="65"/>
+      <c r="X55" s="41"/>
     </row>
     <row r="56" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="14"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="50"/>
-      <c r="P56" s="74"/>
-      <c r="Q56" s="67"/>
-      <c r="R56" s="68"/>
-      <c r="S56" s="69"/>
-      <c r="T56" s="70"/>
-      <c r="U56" s="73"/>
-      <c r="V56" s="72"/>
-      <c r="W56" s="70"/>
-      <c r="X56" s="46"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="45"/>
+      <c r="P56" s="69"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="63"/>
+      <c r="S56" s="64"/>
+      <c r="T56" s="65"/>
+      <c r="U56" s="68"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="65"/>
+      <c r="X56" s="41"/>
     </row>
     <row r="57" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="14"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="46"/>
-      <c r="N57" s="47"/>
-      <c r="O57" s="50"/>
-      <c r="P57" s="74"/>
-      <c r="Q57" s="67"/>
-      <c r="R57" s="68"/>
-      <c r="S57" s="69"/>
-      <c r="T57" s="70"/>
-      <c r="U57" s="73"/>
-      <c r="V57" s="72"/>
-      <c r="W57" s="70"/>
-      <c r="X57" s="46"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="45"/>
+      <c r="P57" s="69"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="63"/>
+      <c r="S57" s="64"/>
+      <c r="T57" s="65"/>
+      <c r="U57" s="68"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="65"/>
+      <c r="X57" s="41"/>
     </row>
     <row r="58" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="47"/>
-      <c r="O58" s="50"/>
-      <c r="P58" s="58"/>
-      <c r="Q58" s="67"/>
-      <c r="R58" s="68"/>
-      <c r="S58" s="69"/>
-      <c r="T58" s="70"/>
-      <c r="U58" s="73"/>
-      <c r="V58" s="72"/>
-      <c r="W58" s="70"/>
-      <c r="X58" s="46"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="45"/>
+      <c r="P58" s="53"/>
+      <c r="Q58" s="62"/>
+      <c r="R58" s="63"/>
+      <c r="S58" s="64"/>
+      <c r="T58" s="65"/>
+      <c r="U58" s="68"/>
+      <c r="V58" s="67"/>
+      <c r="W58" s="65"/>
+      <c r="X58" s="41"/>
     </row>
     <row r="59" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="46"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="50"/>
-      <c r="P59" s="74"/>
-      <c r="Q59" s="67"/>
-      <c r="R59" s="68"/>
-      <c r="S59" s="69"/>
-      <c r="T59" s="70"/>
-      <c r="U59" s="73"/>
-      <c r="V59" s="72"/>
-      <c r="W59" s="70"/>
-      <c r="X59" s="46"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="45"/>
+      <c r="P59" s="69"/>
+      <c r="Q59" s="62"/>
+      <c r="R59" s="63"/>
+      <c r="S59" s="64"/>
+      <c r="T59" s="65"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="67"/>
+      <c r="W59" s="65"/>
+      <c r="X59" s="41"/>
     </row>
     <row r="60" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="65"/>
-      <c r="L60" s="46"/>
-      <c r="M60" s="46"/>
-      <c r="N60" s="47"/>
-      <c r="O60" s="50"/>
-      <c r="P60" s="74"/>
-      <c r="Q60" s="67"/>
-      <c r="R60" s="68"/>
-      <c r="S60" s="69"/>
-      <c r="T60" s="70"/>
-      <c r="U60" s="73"/>
-      <c r="V60" s="72"/>
-      <c r="W60" s="70"/>
-      <c r="X60" s="46"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="45"/>
+      <c r="P60" s="69"/>
+      <c r="Q60" s="62"/>
+      <c r="R60" s="63"/>
+      <c r="S60" s="64"/>
+      <c r="T60" s="65"/>
+      <c r="U60" s="68"/>
+      <c r="V60" s="67"/>
+      <c r="W60" s="65"/>
+      <c r="X60" s="41"/>
     </row>
     <row r="61" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="48"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="47"/>
-      <c r="O61" s="50"/>
-      <c r="P61" s="74"/>
-      <c r="Q61" s="67"/>
-      <c r="R61" s="68"/>
-      <c r="S61" s="69"/>
-      <c r="T61" s="70"/>
-      <c r="U61" s="73"/>
-      <c r="V61" s="72"/>
-      <c r="W61" s="70"/>
-      <c r="X61" s="46"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="45"/>
+      <c r="P61" s="69"/>
+      <c r="Q61" s="62"/>
+      <c r="R61" s="63"/>
+      <c r="S61" s="64"/>
+      <c r="T61" s="65"/>
+      <c r="U61" s="68"/>
+      <c r="V61" s="67"/>
+      <c r="W61" s="65"/>
+      <c r="X61" s="41"/>
     </row>
     <row r="62" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="47"/>
-      <c r="O62" s="50"/>
-      <c r="P62" s="74"/>
-      <c r="Q62" s="67"/>
-      <c r="R62" s="68"/>
-      <c r="S62" s="69"/>
-      <c r="T62" s="70"/>
-      <c r="U62" s="73"/>
-      <c r="V62" s="72"/>
-      <c r="W62" s="70"/>
-      <c r="X62" s="46"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="60"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="45"/>
+      <c r="P62" s="69"/>
+      <c r="Q62" s="62"/>
+      <c r="R62" s="63"/>
+      <c r="S62" s="64"/>
+      <c r="T62" s="65"/>
+      <c r="U62" s="68"/>
+      <c r="V62" s="67"/>
+      <c r="W62" s="65"/>
+      <c r="X62" s="41"/>
     </row>
     <row r="63" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="47"/>
-      <c r="O63" s="50"/>
-      <c r="P63" s="74"/>
-      <c r="Q63" s="67"/>
-      <c r="R63" s="68"/>
-      <c r="S63" s="69"/>
-      <c r="T63" s="70"/>
-      <c r="U63" s="73"/>
-      <c r="V63" s="72"/>
-      <c r="W63" s="70"/>
-      <c r="X63" s="46"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="60"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="41"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="45"/>
+      <c r="P63" s="69"/>
+      <c r="Q63" s="62"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="64"/>
+      <c r="T63" s="65"/>
+      <c r="U63" s="68"/>
+      <c r="V63" s="67"/>
+      <c r="W63" s="65"/>
+      <c r="X63" s="41"/>
     </row>
     <row r="64" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="14"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="65"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="46"/>
-      <c r="N64" s="47"/>
-      <c r="O64" s="50"/>
-      <c r="P64" s="74"/>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="68"/>
-      <c r="S64" s="69"/>
-      <c r="T64" s="70"/>
-      <c r="U64" s="73"/>
-      <c r="V64" s="72"/>
-      <c r="W64" s="70"/>
-      <c r="X64" s="46"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="60"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="45"/>
+      <c r="P64" s="69"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="63"/>
+      <c r="S64" s="64"/>
+      <c r="T64" s="65"/>
+      <c r="U64" s="68"/>
+      <c r="V64" s="67"/>
+      <c r="W64" s="65"/>
+      <c r="X64" s="41"/>
     </row>
     <row r="65" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="14"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="48"/>
-      <c r="K65" s="65"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="46"/>
-      <c r="N65" s="47"/>
-      <c r="O65" s="50"/>
-      <c r="P65" s="74"/>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="68"/>
-      <c r="S65" s="69"/>
-      <c r="T65" s="70"/>
-      <c r="U65" s="73"/>
-      <c r="V65" s="72"/>
-      <c r="W65" s="70"/>
-      <c r="X65" s="46"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="60"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="45"/>
+      <c r="P65" s="69"/>
+      <c r="Q65" s="62"/>
+      <c r="R65" s="63"/>
+      <c r="S65" s="64"/>
+      <c r="T65" s="65"/>
+      <c r="U65" s="68"/>
+      <c r="V65" s="67"/>
+      <c r="W65" s="65"/>
+      <c r="X65" s="41"/>
     </row>
     <row r="66" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="14"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="65"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="47"/>
-      <c r="O66" s="50"/>
-      <c r="P66" s="74"/>
-      <c r="Q66" s="67"/>
-      <c r="R66" s="68"/>
-      <c r="S66" s="69"/>
-      <c r="T66" s="70"/>
-      <c r="U66" s="73"/>
-      <c r="V66" s="72"/>
-      <c r="W66" s="70"/>
-      <c r="X66" s="46"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="60"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="45"/>
+      <c r="P66" s="69"/>
+      <c r="Q66" s="62"/>
+      <c r="R66" s="63"/>
+      <c r="S66" s="64"/>
+      <c r="T66" s="65"/>
+      <c r="U66" s="68"/>
+      <c r="V66" s="67"/>
+      <c r="W66" s="65"/>
+      <c r="X66" s="41"/>
     </row>
     <row r="67" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="65"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="46"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="50"/>
-      <c r="P67" s="74"/>
-      <c r="Q67" s="67"/>
-      <c r="R67" s="68"/>
-      <c r="S67" s="69"/>
-      <c r="T67" s="70"/>
-      <c r="U67" s="73"/>
-      <c r="V67" s="72"/>
-      <c r="W67" s="70"/>
-      <c r="X67" s="46"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="60"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="41"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="45"/>
+      <c r="P67" s="69"/>
+      <c r="Q67" s="62"/>
+      <c r="R67" s="63"/>
+      <c r="S67" s="64"/>
+      <c r="T67" s="65"/>
+      <c r="U67" s="68"/>
+      <c r="V67" s="67"/>
+      <c r="W67" s="65"/>
+      <c r="X67" s="41"/>
     </row>
     <row r="68" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="65"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="46"/>
-      <c r="N68" s="47"/>
-      <c r="O68" s="50"/>
-      <c r="P68" s="74"/>
-      <c r="Q68" s="67"/>
-      <c r="R68" s="68"/>
-      <c r="S68" s="69"/>
-      <c r="T68" s="70"/>
-      <c r="U68" s="73"/>
-      <c r="V68" s="72"/>
-      <c r="W68" s="70"/>
-      <c r="X68" s="46"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="60"/>
+      <c r="L68" s="41"/>
+      <c r="M68" s="41"/>
+      <c r="N68" s="42"/>
+      <c r="O68" s="45"/>
+      <c r="P68" s="69"/>
+      <c r="Q68" s="62"/>
+      <c r="R68" s="63"/>
+      <c r="S68" s="64"/>
+      <c r="T68" s="65"/>
+      <c r="U68" s="68"/>
+      <c r="V68" s="67"/>
+      <c r="W68" s="65"/>
+      <c r="X68" s="41"/>
     </row>
     <row r="69" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="65"/>
-      <c r="L69" s="46"/>
-      <c r="M69" s="46"/>
-      <c r="N69" s="47"/>
-      <c r="O69" s="50"/>
-      <c r="P69" s="74"/>
-      <c r="Q69" s="67"/>
-      <c r="R69" s="68"/>
-      <c r="S69" s="69"/>
-      <c r="T69" s="70"/>
-      <c r="U69" s="73"/>
-      <c r="V69" s="72"/>
-      <c r="W69" s="70"/>
-      <c r="X69" s="46"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="60"/>
+      <c r="L69" s="41"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="45"/>
+      <c r="P69" s="69"/>
+      <c r="Q69" s="62"/>
+      <c r="R69" s="63"/>
+      <c r="S69" s="64"/>
+      <c r="T69" s="65"/>
+      <c r="U69" s="68"/>
+      <c r="V69" s="67"/>
+      <c r="W69" s="65"/>
+      <c r="X69" s="41"/>
     </row>
     <row r="70" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="65"/>
-      <c r="L70" s="46"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="50"/>
-      <c r="P70" s="74"/>
-      <c r="Q70" s="67"/>
-      <c r="R70" s="68"/>
-      <c r="S70" s="69"/>
-      <c r="T70" s="70"/>
-      <c r="U70" s="73"/>
-      <c r="V70" s="72"/>
-      <c r="W70" s="70"/>
-      <c r="X70" s="46"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="60"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="41"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="45"/>
+      <c r="P70" s="69"/>
+      <c r="Q70" s="62"/>
+      <c r="R70" s="63"/>
+      <c r="S70" s="64"/>
+      <c r="T70" s="65"/>
+      <c r="U70" s="68"/>
+      <c r="V70" s="67"/>
+      <c r="W70" s="65"/>
+      <c r="X70" s="41"/>
     </row>
     <row r="71" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="47"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="48"/>
-      <c r="K71" s="65"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="46"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="50"/>
-      <c r="P71" s="74"/>
-      <c r="Q71" s="67"/>
-      <c r="R71" s="68"/>
-      <c r="S71" s="69"/>
-      <c r="T71" s="70"/>
-      <c r="U71" s="73"/>
-      <c r="V71" s="72"/>
-      <c r="W71" s="70"/>
-      <c r="X71" s="46"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="60"/>
+      <c r="L71" s="41"/>
+      <c r="M71" s="41"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="45"/>
+      <c r="P71" s="69"/>
+      <c r="Q71" s="62"/>
+      <c r="R71" s="63"/>
+      <c r="S71" s="64"/>
+      <c r="T71" s="65"/>
+      <c r="U71" s="68"/>
+      <c r="V71" s="67"/>
+      <c r="W71" s="65"/>
+      <c r="X71" s="41"/>
     </row>
     <row r="72" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="48"/>
-      <c r="K72" s="65"/>
-      <c r="L72" s="46"/>
-      <c r="M72" s="46"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="50"/>
-      <c r="P72" s="74"/>
-      <c r="Q72" s="67"/>
-      <c r="R72" s="68"/>
-      <c r="S72" s="69"/>
-      <c r="T72" s="70"/>
-      <c r="U72" s="73"/>
-      <c r="V72" s="72"/>
-      <c r="W72" s="70"/>
-      <c r="X72" s="46"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="60"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="45"/>
+      <c r="P72" s="69"/>
+      <c r="Q72" s="62"/>
+      <c r="R72" s="63"/>
+      <c r="S72" s="64"/>
+      <c r="T72" s="65"/>
+      <c r="U72" s="68"/>
+      <c r="V72" s="67"/>
+      <c r="W72" s="65"/>
+      <c r="X72" s="41"/>
     </row>
     <row r="73" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="47"/>
-      <c r="G73" s="47"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="48"/>
-      <c r="K73" s="65"/>
-      <c r="L73" s="46"/>
-      <c r="M73" s="46"/>
-      <c r="N73" s="47"/>
-      <c r="O73" s="50"/>
-      <c r="P73" s="58"/>
-      <c r="Q73" s="67"/>
-      <c r="R73" s="68"/>
-      <c r="S73" s="69"/>
-      <c r="T73" s="70"/>
-      <c r="U73" s="73"/>
-      <c r="V73" s="72"/>
-      <c r="W73" s="70"/>
-      <c r="X73" s="46" t="s">
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="60"/>
+      <c r="L73" s="41"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="45"/>
+      <c r="P73" s="53"/>
+      <c r="Q73" s="62"/>
+      <c r="R73" s="63"/>
+      <c r="S73" s="64"/>
+      <c r="T73" s="65"/>
+      <c r="U73" s="68"/>
+      <c r="V73" s="67"/>
+      <c r="W73" s="65"/>
+      <c r="X73" s="41" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="74" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="14"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="48"/>
-      <c r="J74" s="48"/>
-      <c r="K74" s="57"/>
-      <c r="L74" s="46"/>
-      <c r="M74" s="46"/>
-      <c r="N74" s="47"/>
-      <c r="O74" s="50"/>
-      <c r="P74" s="74"/>
-      <c r="Q74" s="59"/>
-      <c r="R74" s="60"/>
-      <c r="S74" s="61"/>
-      <c r="T74" s="62"/>
-      <c r="U74" s="63"/>
-      <c r="V74" s="64"/>
-      <c r="W74" s="62"/>
-      <c r="X74" s="46"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="52"/>
+      <c r="L74" s="41"/>
+      <c r="M74" s="41"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="45"/>
+      <c r="P74" s="69"/>
+      <c r="Q74" s="54"/>
+      <c r="R74" s="55"/>
+      <c r="S74" s="56"/>
+      <c r="T74" s="57"/>
+      <c r="U74" s="58"/>
+      <c r="V74" s="59"/>
+      <c r="W74" s="57"/>
+      <c r="X74" s="41"/>
     </row>
     <row r="75" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="14"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="48"/>
-      <c r="J75" s="48"/>
-      <c r="K75" s="57"/>
-      <c r="L75" s="46"/>
-      <c r="M75" s="46"/>
-      <c r="N75" s="47"/>
-      <c r="O75" s="50"/>
-      <c r="P75" s="74"/>
-      <c r="Q75" s="59"/>
-      <c r="R75" s="60"/>
-      <c r="S75" s="61"/>
-      <c r="T75" s="62"/>
-      <c r="U75" s="63"/>
-      <c r="V75" s="64"/>
-      <c r="W75" s="62"/>
-      <c r="X75" s="46"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="52"/>
+      <c r="L75" s="41"/>
+      <c r="M75" s="41"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="45"/>
+      <c r="P75" s="69"/>
+      <c r="Q75" s="54"/>
+      <c r="R75" s="55"/>
+      <c r="S75" s="56"/>
+      <c r="T75" s="57"/>
+      <c r="U75" s="58"/>
+      <c r="V75" s="59"/>
+      <c r="W75" s="57"/>
+      <c r="X75" s="41"/>
     </row>
     <row r="76" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="14"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="48"/>
-      <c r="J76" s="48"/>
-      <c r="K76" s="57"/>
-      <c r="L76" s="46"/>
-      <c r="M76" s="46"/>
-      <c r="N76" s="47"/>
-      <c r="O76" s="50"/>
-      <c r="P76" s="74"/>
-      <c r="Q76" s="59"/>
-      <c r="R76" s="60"/>
-      <c r="S76" s="61"/>
-      <c r="T76" s="62"/>
-      <c r="U76" s="63"/>
-      <c r="V76" s="64"/>
-      <c r="W76" s="62"/>
-      <c r="X76" s="46"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="52"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="45"/>
+      <c r="P76" s="69"/>
+      <c r="Q76" s="54"/>
+      <c r="R76" s="55"/>
+      <c r="S76" s="56"/>
+      <c r="T76" s="57"/>
+      <c r="U76" s="58"/>
+      <c r="V76" s="59"/>
+      <c r="W76" s="57"/>
+      <c r="X76" s="41"/>
     </row>
     <row r="77" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
-      <c r="H77" s="47"/>
-      <c r="I77" s="48"/>
-      <c r="J77" s="48"/>
-      <c r="K77" s="57"/>
-      <c r="L77" s="46"/>
-      <c r="M77" s="46"/>
-      <c r="N77" s="47"/>
-      <c r="O77" s="50"/>
-      <c r="P77" s="74"/>
-      <c r="Q77" s="59"/>
-      <c r="R77" s="60"/>
-      <c r="S77" s="61"/>
-      <c r="T77" s="62"/>
-      <c r="U77" s="63"/>
-      <c r="V77" s="64"/>
-      <c r="W77" s="62"/>
-      <c r="X77" s="46"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="52"/>
+      <c r="L77" s="41"/>
+      <c r="M77" s="41"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="45"/>
+      <c r="P77" s="69"/>
+      <c r="Q77" s="54"/>
+      <c r="R77" s="55"/>
+      <c r="S77" s="56"/>
+      <c r="T77" s="57"/>
+      <c r="U77" s="58"/>
+      <c r="V77" s="59"/>
+      <c r="W77" s="57"/>
+      <c r="X77" s="41"/>
     </row>
     <row r="78" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="47"/>
-      <c r="H78" s="47"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="48"/>
-      <c r="K78" s="57"/>
-      <c r="L78" s="46"/>
-      <c r="M78" s="46"/>
-      <c r="N78" s="47"/>
-      <c r="O78" s="50"/>
-      <c r="P78" s="74"/>
-      <c r="Q78" s="59"/>
-      <c r="R78" s="60"/>
-      <c r="S78" s="61"/>
-      <c r="T78" s="62"/>
-      <c r="U78" s="63"/>
-      <c r="V78" s="64"/>
-      <c r="W78" s="62"/>
-      <c r="X78" s="46"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="52"/>
+      <c r="L78" s="41"/>
+      <c r="M78" s="41"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="45"/>
+      <c r="P78" s="69"/>
+      <c r="Q78" s="54"/>
+      <c r="R78" s="55"/>
+      <c r="S78" s="56"/>
+      <c r="T78" s="57"/>
+      <c r="U78" s="58"/>
+      <c r="V78" s="59"/>
+      <c r="W78" s="57"/>
+      <c r="X78" s="41"/>
     </row>
     <row r="79" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="47"/>
-      <c r="H79" s="47"/>
-      <c r="I79" s="48"/>
-      <c r="J79" s="48"/>
-      <c r="K79" s="57"/>
-      <c r="L79" s="46"/>
-      <c r="M79" s="46"/>
-      <c r="N79" s="47"/>
-      <c r="O79" s="50"/>
-      <c r="P79" s="74"/>
-      <c r="Q79" s="59"/>
-      <c r="R79" s="60"/>
-      <c r="S79" s="61"/>
-      <c r="T79" s="62"/>
-      <c r="U79" s="63"/>
-      <c r="V79" s="64"/>
-      <c r="W79" s="62"/>
-      <c r="X79" s="46"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="52"/>
+      <c r="L79" s="41"/>
+      <c r="M79" s="41"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="45"/>
+      <c r="P79" s="69"/>
+      <c r="Q79" s="54"/>
+      <c r="R79" s="55"/>
+      <c r="S79" s="56"/>
+      <c r="T79" s="57"/>
+      <c r="U79" s="58"/>
+      <c r="V79" s="59"/>
+      <c r="W79" s="57"/>
+      <c r="X79" s="41"/>
     </row>
     <row r="80" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="47"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="47"/>
-      <c r="H80" s="47"/>
-      <c r="I80" s="48"/>
-      <c r="J80" s="48"/>
-      <c r="K80" s="57"/>
-      <c r="L80" s="46"/>
-      <c r="M80" s="46"/>
-      <c r="N80" s="47"/>
-      <c r="O80" s="50"/>
-      <c r="P80" s="74"/>
-      <c r="Q80" s="59"/>
-      <c r="R80" s="60"/>
-      <c r="S80" s="61"/>
-      <c r="T80" s="62"/>
-      <c r="U80" s="63"/>
-      <c r="V80" s="64"/>
-      <c r="W80" s="62"/>
-      <c r="X80" s="46"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="52"/>
+      <c r="L80" s="41"/>
+      <c r="M80" s="41"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="45"/>
+      <c r="P80" s="69"/>
+      <c r="Q80" s="54"/>
+      <c r="R80" s="55"/>
+      <c r="S80" s="56"/>
+      <c r="T80" s="57"/>
+      <c r="U80" s="58"/>
+      <c r="V80" s="59"/>
+      <c r="W80" s="57"/>
+      <c r="X80" s="41"/>
     </row>
     <row r="81" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="47"/>
-      <c r="H81" s="47"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="48"/>
-      <c r="K81" s="65"/>
-      <c r="L81" s="46"/>
-      <c r="M81" s="46"/>
-      <c r="N81" s="47"/>
-      <c r="O81" s="50"/>
-      <c r="P81" s="74"/>
-      <c r="Q81" s="67"/>
-      <c r="R81" s="68"/>
-      <c r="S81" s="69"/>
-      <c r="T81" s="70"/>
-      <c r="U81" s="73"/>
-      <c r="V81" s="72"/>
-      <c r="W81" s="70"/>
-      <c r="X81" s="46"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="43"/>
+      <c r="K81" s="60"/>
+      <c r="L81" s="41"/>
+      <c r="M81" s="41"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="45"/>
+      <c r="P81" s="69"/>
+      <c r="Q81" s="62"/>
+      <c r="R81" s="63"/>
+      <c r="S81" s="64"/>
+      <c r="T81" s="65"/>
+      <c r="U81" s="68"/>
+      <c r="V81" s="67"/>
+      <c r="W81" s="65"/>
+      <c r="X81" s="41"/>
     </row>
     <row r="82" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="47"/>
-      <c r="G82" s="47"/>
-      <c r="H82" s="47"/>
-      <c r="I82" s="48"/>
-      <c r="J82" s="48"/>
-      <c r="K82" s="65"/>
-      <c r="L82" s="46"/>
-      <c r="M82" s="46"/>
-      <c r="N82" s="47"/>
-      <c r="O82" s="50"/>
-      <c r="P82" s="74"/>
-      <c r="Q82" s="67"/>
-      <c r="R82" s="68"/>
-      <c r="S82" s="69"/>
-      <c r="T82" s="70"/>
-      <c r="U82" s="73"/>
-      <c r="V82" s="72"/>
-      <c r="W82" s="70"/>
-      <c r="X82" s="46"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="43"/>
+      <c r="J82" s="43"/>
+      <c r="K82" s="60"/>
+      <c r="L82" s="41"/>
+      <c r="M82" s="41"/>
+      <c r="N82" s="42"/>
+      <c r="O82" s="45"/>
+      <c r="P82" s="69"/>
+      <c r="Q82" s="62"/>
+      <c r="R82" s="63"/>
+      <c r="S82" s="64"/>
+      <c r="T82" s="65"/>
+      <c r="U82" s="68"/>
+      <c r="V82" s="67"/>
+      <c r="W82" s="65"/>
+      <c r="X82" s="41"/>
     </row>
     <row r="83" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="47"/>
-      <c r="I83" s="48"/>
-      <c r="J83" s="48"/>
-      <c r="K83" s="65"/>
-      <c r="L83" s="46"/>
-      <c r="M83" s="46"/>
-      <c r="N83" s="47"/>
-      <c r="O83" s="50"/>
-      <c r="P83" s="74"/>
-      <c r="Q83" s="67"/>
-      <c r="R83" s="68"/>
-      <c r="S83" s="69"/>
-      <c r="T83" s="70"/>
-      <c r="U83" s="73"/>
-      <c r="V83" s="72"/>
-      <c r="W83" s="70"/>
-      <c r="X83" s="46"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="60"/>
+      <c r="L83" s="41"/>
+      <c r="M83" s="41"/>
+      <c r="N83" s="42"/>
+      <c r="O83" s="45"/>
+      <c r="P83" s="69"/>
+      <c r="Q83" s="62"/>
+      <c r="R83" s="63"/>
+      <c r="S83" s="64"/>
+      <c r="T83" s="65"/>
+      <c r="U83" s="68"/>
+      <c r="V83" s="67"/>
+      <c r="W83" s="65"/>
+      <c r="X83" s="41"/>
     </row>
     <row r="84" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="14"/>
-      <c r="C84" s="46"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="47"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="48"/>
-      <c r="K84" s="65"/>
-      <c r="L84" s="46"/>
-      <c r="M84" s="46"/>
-      <c r="N84" s="47"/>
-      <c r="O84" s="50"/>
-      <c r="P84" s="74"/>
-      <c r="Q84" s="67"/>
-      <c r="R84" s="68"/>
-      <c r="S84" s="69"/>
-      <c r="T84" s="70"/>
-      <c r="U84" s="73"/>
-      <c r="V84" s="72"/>
-      <c r="W84" s="70"/>
-      <c r="X84" s="46"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="43"/>
+      <c r="K84" s="60"/>
+      <c r="L84" s="41"/>
+      <c r="M84" s="41"/>
+      <c r="N84" s="42"/>
+      <c r="O84" s="45"/>
+      <c r="P84" s="69"/>
+      <c r="Q84" s="62"/>
+      <c r="R84" s="63"/>
+      <c r="S84" s="64"/>
+      <c r="T84" s="65"/>
+      <c r="U84" s="68"/>
+      <c r="V84" s="67"/>
+      <c r="W84" s="65"/>
+      <c r="X84" s="41"/>
     </row>
     <row r="85" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="14"/>
-      <c r="C85" s="46"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="47"/>
-      <c r="I85" s="48"/>
-      <c r="J85" s="48"/>
-      <c r="K85" s="65"/>
-      <c r="L85" s="46"/>
-      <c r="M85" s="46"/>
-      <c r="N85" s="47"/>
-      <c r="O85" s="50"/>
-      <c r="P85" s="74"/>
-      <c r="Q85" s="67"/>
-      <c r="R85" s="68"/>
-      <c r="S85" s="69"/>
-      <c r="T85" s="70"/>
-      <c r="U85" s="73"/>
-      <c r="V85" s="72"/>
-      <c r="W85" s="70"/>
-      <c r="X85" s="46"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="43"/>
+      <c r="K85" s="60"/>
+      <c r="L85" s="41"/>
+      <c r="M85" s="41"/>
+      <c r="N85" s="42"/>
+      <c r="O85" s="45"/>
+      <c r="P85" s="69"/>
+      <c r="Q85" s="62"/>
+      <c r="R85" s="63"/>
+      <c r="S85" s="64"/>
+      <c r="T85" s="65"/>
+      <c r="U85" s="68"/>
+      <c r="V85" s="67"/>
+      <c r="W85" s="65"/>
+      <c r="X85" s="41"/>
     </row>
     <row r="86" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="14"/>
-      <c r="C86" s="46"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="48"/>
-      <c r="J86" s="48"/>
-      <c r="K86" s="65"/>
-      <c r="L86" s="46"/>
-      <c r="M86" s="46"/>
-      <c r="N86" s="47"/>
-      <c r="O86" s="50"/>
-      <c r="P86" s="66"/>
-      <c r="Q86" s="67"/>
-      <c r="R86" s="68"/>
-      <c r="S86" s="69"/>
-      <c r="T86" s="70"/>
-      <c r="U86" s="73"/>
-      <c r="V86" s="72"/>
-      <c r="W86" s="70"/>
-      <c r="X86" s="46"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="43"/>
+      <c r="J86" s="43"/>
+      <c r="K86" s="60"/>
+      <c r="L86" s="41"/>
+      <c r="M86" s="41"/>
+      <c r="N86" s="42"/>
+      <c r="O86" s="45"/>
+      <c r="P86" s="61"/>
+      <c r="Q86" s="62"/>
+      <c r="R86" s="63"/>
+      <c r="S86" s="64"/>
+      <c r="T86" s="65"/>
+      <c r="U86" s="68"/>
+      <c r="V86" s="67"/>
+      <c r="W86" s="65"/>
+      <c r="X86" s="41"/>
     </row>
     <row r="87" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="47"/>
-      <c r="I87" s="48"/>
-      <c r="J87" s="48"/>
-      <c r="K87" s="65"/>
-      <c r="L87" s="46"/>
-      <c r="M87" s="46"/>
-      <c r="N87" s="47"/>
-      <c r="O87" s="50"/>
-      <c r="P87" s="66"/>
-      <c r="Q87" s="67"/>
-      <c r="R87" s="68"/>
-      <c r="S87" s="69"/>
-      <c r="T87" s="70"/>
-      <c r="U87" s="73"/>
-      <c r="V87" s="72"/>
-      <c r="W87" s="70"/>
-      <c r="X87" s="46"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="43"/>
+      <c r="J87" s="43"/>
+      <c r="K87" s="60"/>
+      <c r="L87" s="41"/>
+      <c r="M87" s="41"/>
+      <c r="N87" s="42"/>
+      <c r="O87" s="45"/>
+      <c r="P87" s="61"/>
+      <c r="Q87" s="62"/>
+      <c r="R87" s="63"/>
+      <c r="S87" s="64"/>
+      <c r="T87" s="65"/>
+      <c r="U87" s="68"/>
+      <c r="V87" s="67"/>
+      <c r="W87" s="65"/>
+      <c r="X87" s="41"/>
     </row>
     <row r="88" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="47"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="47"/>
-      <c r="H88" s="47"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="48"/>
-      <c r="K88" s="65"/>
-      <c r="L88" s="46"/>
-      <c r="M88" s="46"/>
-      <c r="N88" s="47"/>
-      <c r="O88" s="50"/>
-      <c r="P88" s="66"/>
-      <c r="Q88" s="67"/>
-      <c r="R88" s="68"/>
-      <c r="S88" s="69"/>
-      <c r="T88" s="70"/>
-      <c r="U88" s="73"/>
-      <c r="V88" s="72"/>
-      <c r="W88" s="70"/>
-      <c r="X88" s="46"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="43"/>
+      <c r="K88" s="60"/>
+      <c r="L88" s="41"/>
+      <c r="M88" s="41"/>
+      <c r="N88" s="42"/>
+      <c r="O88" s="45"/>
+      <c r="P88" s="61"/>
+      <c r="Q88" s="62"/>
+      <c r="R88" s="63"/>
+      <c r="S88" s="64"/>
+      <c r="T88" s="65"/>
+      <c r="U88" s="68"/>
+      <c r="V88" s="67"/>
+      <c r="W88" s="65"/>
+      <c r="X88" s="41"/>
     </row>
     <row r="1047034" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B1047034" s="27"/>
-      <c r="C1047034" s="75"/>
+      <c r="B1047034" s="24"/>
+      <c r="C1047034" s="70"/>
       <c r="D1047034" s="5"/>
       <c r="E1047034" s="5"/>
       <c r="F1047034" s="5"/>
@@ -16951,10 +16925,10 @@
       <c r="X1047034" s="5"/>
     </row>
     <row r="1047052" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1047052" s="27">
+      <c r="B1047052" s="24">
         <v>44216</v>
       </c>
-      <c r="C1047052" s="75"/>
+      <c r="C1047052" s="70"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" autoFilter="0" pivotTables="0"/>
@@ -18791,8 +18765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19103,45 +19077,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
